--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markthekoala/Documents/d3_examples/r_markdown_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177EEAF6-CC7D-7D4B-BFD5-DCD6B72B22BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6D665B-E01B-4F4D-9A7F-22E0E5B4A917}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31800" yWindow="4740" windowWidth="30320" windowHeight="20980" xr2:uid="{0CCDF81B-02EA-8B40-8694-588641D8DF5F}"/>
+    <workbookView xWindow="-31800" yWindow="4740" windowWidth="30320" windowHeight="20980" activeTab="2" xr2:uid="{0CCDF81B-02EA-8B40-8694-588641D8DF5F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="top_level_combo" sheetId="1" r:id="rId1"/>
+    <sheet name="second_names" sheetId="2" r:id="rId2"/>
+    <sheet name="top_names" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="129">
   <si>
     <t>A</t>
   </si>
@@ -93,17 +95,341 @@
     <t>S</t>
   </si>
   <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>END</t>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Aquaculture</t>
+  </si>
+  <si>
+    <t>Forestry and Logging</t>
+  </si>
+  <si>
+    <t>Fishing, Hunting and Trapping                                                                                               </t>
+  </si>
+  <si>
+    <t>Agriculture, Forestry and Fishing Support Services                                                                          </t>
+  </si>
+  <si>
+    <t>Coal Mining</t>
+  </si>
+  <si>
+    <t>Oil and Gas Extraction</t>
+  </si>
+  <si>
+    <t>Metal Ore Mining</t>
+  </si>
+  <si>
+    <t>Non-Metallic Mineral Mining and Quarrying</t>
+  </si>
+  <si>
+    <t>Exploration and Other Mining Support Services</t>
+  </si>
+  <si>
+    <t>Food Product</t>
+  </si>
+  <si>
+    <t>Beverage and Tobacco Product</t>
+  </si>
+  <si>
+    <t>Textile, Leather, Clothing and Footwear                                                                       </t>
+  </si>
+  <si>
+    <t>Wood Product</t>
+  </si>
+  <si>
+    <t>Pulp, Paper and Converted Paper Product                                                                       </t>
+  </si>
+  <si>
+    <t>Printing</t>
+  </si>
+  <si>
+    <t>Petroleum and Coal Product</t>
+  </si>
+  <si>
+    <t>Basic Chemical and Chemical Products</t>
+  </si>
+  <si>
+    <t>Polymer Product and Rubber Products</t>
+  </si>
+  <si>
+    <t>Non-Metallic Mineral Products</t>
+  </si>
+  <si>
+    <t>Primary Metal and Metal Products</t>
+  </si>
+  <si>
+    <t>Fabricated Metal Products</t>
+  </si>
+  <si>
+    <t>Transport Equipment Products</t>
+  </si>
+  <si>
+    <t>Machinery and Equipment Manufacturing</t>
+  </si>
+  <si>
+    <t>Furniture and Other Manufacturing</t>
+  </si>
+  <si>
+    <t>Electricity Supply</t>
+  </si>
+  <si>
+    <t>Gas Supply</t>
+  </si>
+  <si>
+    <t>Water Supply, Sewerage and Drainage                                                                                </t>
+  </si>
+  <si>
+    <t>Waste Collection, Treatment and Disposal                                                                           </t>
+  </si>
+  <si>
+    <t>Building Construction</t>
+  </si>
+  <si>
+    <t>Heavy and Civil Engineering Construction</t>
+  </si>
+  <si>
+    <t>Construction Services</t>
+  </si>
+  <si>
+    <t>Basic Material Wholesaling</t>
+  </si>
+  <si>
+    <t>Machinery and Equipment Wholesaling</t>
+  </si>
+  <si>
+    <t>Motor Vehicle and Parts Wholesaling</t>
+  </si>
+  <si>
+    <t>Grocery, Liquor and Tobacco Product Wholesaling                                                                             </t>
+  </si>
+  <si>
+    <t>Other Goods Wholesaling</t>
+  </si>
+  <si>
+    <t>Commission-Based Wholesaling</t>
+  </si>
+  <si>
+    <t>Motor Vehicle and Parts Retailing</t>
+  </si>
+  <si>
+    <t>Fuel Retailing</t>
+  </si>
+  <si>
+    <t>Food Retailing</t>
+  </si>
+  <si>
+    <t>Other Store-Based Retailing</t>
+  </si>
+  <si>
+    <t>Non-Store Retailing Buying and/or Selling</t>
+  </si>
+  <si>
+    <t>Accommodation</t>
+  </si>
+  <si>
+    <t>Food and Beverage Services</t>
+  </si>
+  <si>
+    <t>Road Transport</t>
+  </si>
+  <si>
+    <t>Rail Transport</t>
+  </si>
+  <si>
+    <t>Water Transport</t>
+  </si>
+  <si>
+    <t>Air and Space Transport</t>
+  </si>
+  <si>
+    <t>Other Transport</t>
+  </si>
+  <si>
+    <t>Postal and Courier Pick-up and Delivery Services</t>
+  </si>
+  <si>
+    <t>Transport Support Services</t>
+  </si>
+  <si>
+    <t>Warehousing and Storage Services</t>
+  </si>
+  <si>
+    <t>Publishing (except Internet and Music Publishing)</t>
+  </si>
+  <si>
+    <t>Motion Picture and Sound Recording Activities</t>
+  </si>
+  <si>
+    <t>Broadcasting (except Internet)</t>
+  </si>
+  <si>
+    <t>Internet Publishing and Broadcasting</t>
+  </si>
+  <si>
+    <t>Telecommunications Services</t>
+  </si>
+  <si>
+    <t>ISP /  Data Processing Services                                                 </t>
+  </si>
+  <si>
+    <t>Library and Other Information Services</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Insurance and Superannuation Funds</t>
+  </si>
+  <si>
+    <t>Auxiliary Finance and Insurance Services</t>
+  </si>
+  <si>
+    <t>Rental and Hiring Services (except Real Estate)</t>
+  </si>
+  <si>
+    <t>Property Operators and Real Estate Services</t>
+  </si>
+  <si>
+    <t>Non ICT Professional, Scientific and Technical Services</t>
+  </si>
+  <si>
+    <t>ICT and Related Services</t>
+  </si>
+  <si>
+    <t>Administrative Services</t>
+  </si>
+  <si>
+    <t>Building Cleaning, Pest Control                                                                </t>
+  </si>
+  <si>
+    <t>Public Administration</t>
+  </si>
+  <si>
+    <t>Defence</t>
+  </si>
+  <si>
+    <t>Public Order, Safety and Regulation                                                                             </t>
+  </si>
+  <si>
+    <t>Preschool and School Education</t>
+  </si>
+  <si>
+    <t>Tertiary Education</t>
+  </si>
+  <si>
+    <t>Adult, Community and Other Education                                                                                        </t>
+  </si>
+  <si>
+    <t>Hospitals</t>
+  </si>
+  <si>
+    <t>Medical and Other Health Care Services</t>
+  </si>
+  <si>
+    <t>Residential Care Services</t>
+  </si>
+  <si>
+    <t>Social Assistance Services</t>
+  </si>
+  <si>
+    <t>Heritage Activities</t>
+  </si>
+  <si>
+    <t>Creative and Performing Arts Activities</t>
+  </si>
+  <si>
+    <t>Sports and Recreation Activities</t>
+  </si>
+  <si>
+    <t>Gambling Activities</t>
+  </si>
+  <si>
+    <t>Repair and Maintenance</t>
+  </si>
+  <si>
+    <t>Personal and Other Services</t>
+  </si>
+  <si>
+    <t>Private Households Employing Staff</t>
+  </si>
+  <si>
+    <t>XXX-Specific Codes</t>
+  </si>
+  <si>
+    <t>second_level_names</t>
+  </si>
+  <si>
+    <t>Agriculture / Forestry / Fishing</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Wholesalers</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Accomodation / Food</t>
+  </si>
+  <si>
+    <t>Transport / Postal / Warehousing</t>
+  </si>
+  <si>
+    <t>Media / Telecommunications</t>
+  </si>
+  <si>
+    <t>Finance &amp; Insurance</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Professional / Scientific / Technical</t>
+  </si>
+  <si>
+    <t>Admin and Support</t>
+  </si>
+  <si>
+    <t>Public Admin / Safety</t>
+  </si>
+  <si>
+    <t>Education and Training</t>
+  </si>
+  <si>
+    <t>Health and Social Work</t>
+  </si>
+  <si>
+    <t>Arts and Recreation</t>
+  </si>
+  <si>
+    <t>Other Service</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,6 +443,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,9 +471,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A048A944-A135-6D40-A47A-1817F949810E}">
-  <dimension ref="A1:E343"/>
+  <dimension ref="A1:C362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="A321" sqref="A321"/>
+    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,6 +804,9 @@
       <c r="B1" t="s">
         <v>20</v>
       </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -813,7 +1149,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -824,7 +1160,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -835,7 +1171,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -846,7 +1182,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -857,7 +1193,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -868,7 +1204,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -879,7 +1215,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -889,11 +1225,8 @@
       <c r="C39">
         <v>495</v>
       </c>
-      <c r="E39">
-        <v>30220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -904,7 +1237,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -915,7 +1248,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -926,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -937,7 +1270,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -948,7 +1281,7 @@
         <v>6522</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -959,7 +1292,7 @@
         <v>6145</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -970,7 +1303,7 @@
         <v>6590</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -981,7 +1314,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -4235,6 +4568,844 @@
       </c>
       <c r="C343">
         <v>958</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>18</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>18</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C345">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>18</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C346">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>18</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C347">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>18</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>18</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C349">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>18</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C350">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>18</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C351">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>18</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C352">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>18</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C353">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>18</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C354">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>18</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C355">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>18</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C356">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>18</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C357">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>18</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C358">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>18</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C359">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>18</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C360">
+        <v>6280</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>18</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C361">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>18</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDA6854-A340-8947-80F7-F4AF73C7A997}">
+  <dimension ref="A1:A88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="91.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E5767-D5A1-2848-8724-3FD0CD66BE5B}">
+  <dimension ref="A2:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markthekoala/Documents/d3_examples/r_markdown_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zurich/Documents/dg_the_grid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6D665B-E01B-4F4D-9A7F-22E0E5B4A917}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD762C63-429F-FD4E-A857-E0BD3B0F3CF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31800" yWindow="4740" windowWidth="30320" windowHeight="20980" activeTab="2" xr2:uid="{0CCDF81B-02EA-8B40-8694-588641D8DF5F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="13920" activeTab="2" xr2:uid="{0CCDF81B-02EA-8B40-8694-588641D8DF5F}"/>
   </bookViews>
   <sheets>
     <sheet name="top_level_combo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="131">
   <si>
     <t>A</t>
   </si>
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t>Other Service</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>top_level</t>
   </si>
 </sst>
 </file>
@@ -5244,10 +5250,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E5767-D5A1-2848-8724-3FD0CD66BE5B}">
-  <dimension ref="A2:B20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5256,6 +5262,14 @@
     <col min="2" max="2" width="51.1640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
